--- a/biology/Zoologie/Grive_de_Nouvelle-Bretagne/Grive_de_Nouvelle-Bretagne.xlsx
+++ b/biology/Zoologie/Grive_de_Nouvelle-Bretagne/Grive_de_Nouvelle-Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zoothera talaseae
-La Grive de Nouvelle-Bretagne (Zoothera talaseae) est une espèce de passereaux de la famille des Turdidae[1].
+La Grive de Nouvelle-Bretagne (Zoothera talaseae) est une espèce de passereaux de la famille des Turdidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Elle se rencontre en Nouvelle-Bretagne et à Bougainville[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Papouasie-Nouvelle-Guinée. Elle se rencontre en Nouvelle-Bretagne et à Bougainville.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 7.3, 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 7.3, 2017) :
 Zoothera talaseae talaseae (Rothschild &amp; Hartert, 1926) — Umboi &amp; Nouvelle-Bretagne
 Zoothera talaseae atrigena Ripley &amp; Hadden, 1982 — Bougainville</t>
         </is>
